--- a/MainTop/03.09.2025 бирки транспорт/transport.xlsx
+++ b/MainTop/03.09.2025 бирки транспорт/transport.xlsx
@@ -5,28 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\03.09.2025 бирки транспорт\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\03.09.2025 бирки транспорт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7675D8F1-702E-40BB-8AD0-AEC18049CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0522DFF2-FAFC-4E46-833C-5880070263D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -453,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,24 +453,24 @@
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -494,12 +483,8 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="G2">
-        <f>C2*2</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -512,12 +497,8 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="G3">
-        <f>C3*2</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -530,12 +511,8 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4" si="0">C4*2</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -548,12 +525,8 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G14" si="1">C5*2</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -566,12 +539,8 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -584,12 +553,8 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -602,12 +567,8 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -620,12 +581,8 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -638,12 +595,8 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -656,12 +609,8 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -674,12 +623,8 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -692,12 +637,8 @@
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -709,10 +650,6 @@
       </c>
       <c r="E14" t="s">
         <v>6</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
     </row>
   </sheetData>
